--- a/인공지능 데이터수집 통합본(3).xlsx
+++ b/인공지능 데이터수집 통합본(3).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhe\Desktop\textmask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrandonJ\Desktop\filtertext\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BEF450-8225-4DA4-BD6B-072CA4C646A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9178FF65-6FFB-4131-AB6F-FF5C0B9FA4FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{803E0134-E723-4E67-ACFA-54083E74CAC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{803E0134-E723-4E67-ACFA-54083E74CAC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -941,14 +941,6 @@
     <t>매국노 색휘들 겁나많네 ㅋㅋㅋ 돌아이 떠나니까 싸패급이 왔어 ㅋㅋㅋ</t>
   </si>
   <si>
-    <t>클린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지랄도 풍년이다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1129,6 +1121,12 @@
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>Bad</t>
   </si>
 </sst>
 </file>
@@ -1872,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D802331-73B8-4F76-A059-2042B38FCF89}">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1883,15 +1881,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" thickBot="1">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" thickBot="1">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1899,7 +1897,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" thickBot="1">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1907,7 +1905,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" thickBot="1">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1915,7 +1913,7 @@
     </row>
     <row r="5" spans="1:2" ht="17.25" thickBot="1">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -1923,7 +1921,7 @@
     </row>
     <row r="6" spans="1:2" ht="17.25" thickBot="1">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>81</v>
@@ -1931,7 +1929,7 @@
     </row>
     <row r="7" spans="1:2" ht="17.25" thickBot="1">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>82</v>
@@ -1939,7 +1937,7 @@
     </row>
     <row r="8" spans="1:2" ht="17.25" thickBot="1">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -1947,7 +1945,7 @@
     </row>
     <row r="9" spans="1:2" ht="17.25" thickBot="1">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1955,7 +1953,7 @@
     </row>
     <row r="10" spans="1:2" ht="17.25" thickBot="1">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1963,7 +1961,7 @@
     </row>
     <row r="11" spans="1:2" ht="17.25" thickBot="1">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -1971,7 +1969,7 @@
     </row>
     <row r="12" spans="1:2" ht="17.25" thickBot="1">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -1979,7 +1977,7 @@
     </row>
     <row r="13" spans="1:2" ht="17.25" thickBot="1">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
@@ -1987,7 +1985,7 @@
     </row>
     <row r="14" spans="1:2" ht="17.25" thickBot="1">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -1995,7 +1993,7 @@
     </row>
     <row r="15" spans="1:2" ht="17.25" thickBot="1">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -2003,7 +2001,7 @@
     </row>
     <row r="16" spans="1:2" ht="17.25" thickBot="1">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -2011,7 +2009,7 @@
     </row>
     <row r="17" spans="1:2" ht="17.25" thickBot="1">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
@@ -2019,7 +2017,7 @@
     </row>
     <row r="18" spans="1:2" ht="17.25" thickBot="1">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
@@ -2027,7 +2025,7 @@
     </row>
     <row r="19" spans="1:2" ht="17.25" thickBot="1">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -2035,7 +2033,7 @@
     </row>
     <row r="20" spans="1:2" ht="17.25" thickBot="1">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
@@ -2043,7 +2041,7 @@
     </row>
     <row r="21" spans="1:2" ht="17.25" thickBot="1">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -2051,7 +2049,7 @@
     </row>
     <row r="22" spans="1:2" ht="17.25" thickBot="1">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
@@ -2059,7 +2057,7 @@
     </row>
     <row r="23" spans="1:2" ht="17.25" thickBot="1">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
@@ -2067,7 +2065,7 @@
     </row>
     <row r="24" spans="1:2" ht="17.25" thickBot="1">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>20</v>
@@ -2075,7 +2073,7 @@
     </row>
     <row r="25" spans="1:2" ht="17.25" thickBot="1">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>21</v>
@@ -2083,7 +2081,7 @@
     </row>
     <row r="26" spans="1:2" ht="17.25" thickBot="1">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
@@ -2091,7 +2089,7 @@
     </row>
     <row r="27" spans="1:2" ht="17.25" thickBot="1">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>23</v>
@@ -2099,7 +2097,7 @@
     </row>
     <row r="28" spans="1:2" ht="17.25" thickBot="1">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>24</v>
@@ -2107,7 +2105,7 @@
     </row>
     <row r="29" spans="1:2" ht="17.25" thickBot="1">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -2115,7 +2113,7 @@
     </row>
     <row r="30" spans="1:2" ht="17.25" thickBot="1">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>26</v>
@@ -2123,7 +2121,7 @@
     </row>
     <row r="31" spans="1:2" ht="17.25" thickBot="1">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
@@ -2131,7 +2129,7 @@
     </row>
     <row r="32" spans="1:2" ht="17.25" thickBot="1">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>28</v>
@@ -2139,7 +2137,7 @@
     </row>
     <row r="33" spans="1:2" ht="17.25" thickBot="1">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>29</v>
@@ -2147,7 +2145,7 @@
     </row>
     <row r="34" spans="1:2" ht="17.25" thickBot="1">
       <c r="A34" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>30</v>
@@ -2155,7 +2153,7 @@
     </row>
     <row r="35" spans="1:2" ht="17.25" thickBot="1">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>31</v>
@@ -2163,7 +2161,7 @@
     </row>
     <row r="36" spans="1:2" ht="17.25" thickBot="1">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>32</v>
@@ -2171,7 +2169,7 @@
     </row>
     <row r="37" spans="1:2" ht="17.25" thickBot="1">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>33</v>
@@ -2179,7 +2177,7 @@
     </row>
     <row r="38" spans="1:2" ht="17.25" thickBot="1">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>69</v>
@@ -2187,7 +2185,7 @@
     </row>
     <row r="39" spans="1:2" ht="17.25" thickBot="1">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>34</v>
@@ -2195,7 +2193,7 @@
     </row>
     <row r="40" spans="1:2" ht="17.25" thickBot="1">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>35</v>
@@ -2203,7 +2201,7 @@
     </row>
     <row r="41" spans="1:2" ht="17.25" thickBot="1">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>36</v>
@@ -2211,7 +2209,7 @@
     </row>
     <row r="42" spans="1:2" ht="17.25" thickBot="1">
       <c r="A42" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>37</v>
@@ -2219,7 +2217,7 @@
     </row>
     <row r="43" spans="1:2" ht="17.25" thickBot="1">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>38</v>
@@ -2227,7 +2225,7 @@
     </row>
     <row r="44" spans="1:2" ht="17.25" thickBot="1">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>39</v>
@@ -2235,7 +2233,7 @@
     </row>
     <row r="45" spans="1:2" ht="17.25" thickBot="1">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>40</v>
@@ -2243,7 +2241,7 @@
     </row>
     <row r="46" spans="1:2" ht="17.25" thickBot="1">
       <c r="A46" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>41</v>
@@ -2251,7 +2249,7 @@
     </row>
     <row r="47" spans="1:2" ht="17.25" thickBot="1">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>42</v>
@@ -2259,7 +2257,7 @@
     </row>
     <row r="48" spans="1:2" ht="17.25" thickBot="1">
       <c r="A48" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>43</v>
@@ -2267,7 +2265,7 @@
     </row>
     <row r="49" spans="1:2" ht="17.25" thickBot="1">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>44</v>
@@ -2275,7 +2273,7 @@
     </row>
     <row r="50" spans="1:2" ht="17.25" thickBot="1">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>45</v>
@@ -2283,7 +2281,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>85</v>
@@ -2291,7 +2289,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>87</v>
@@ -2299,7 +2297,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>89</v>
@@ -2307,7 +2305,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>91</v>
@@ -2315,7 +2313,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>93</v>
@@ -2323,7 +2321,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>95</v>
@@ -2331,7 +2329,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>97</v>
@@ -2339,7 +2337,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B58" s="23" t="s">
         <v>99</v>
@@ -2347,7 +2345,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>101</v>
@@ -2355,7 +2353,7 @@
     </row>
     <row r="60" spans="1:2" ht="24">
       <c r="A60" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B60" s="21" t="s">
         <v>103</v>
@@ -2363,7 +2361,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>105</v>
@@ -2371,7 +2369,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>107</v>
@@ -2379,7 +2377,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>109</v>
@@ -2387,7 +2385,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>111</v>
@@ -2395,7 +2393,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>113</v>
@@ -2403,7 +2401,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>115</v>
@@ -2411,7 +2409,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>117</v>
@@ -2419,7 +2417,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>119</v>
@@ -2427,7 +2425,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>121</v>
@@ -2435,7 +2433,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>123</v>
@@ -2443,7 +2441,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>125</v>
@@ -2451,7 +2449,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>127</v>
@@ -2459,7 +2457,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B73" s="25" t="s">
         <v>129</v>
@@ -2467,7 +2465,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>131</v>
@@ -2475,7 +2473,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B75" s="26" t="s">
         <v>133</v>
@@ -2483,7 +2481,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>135</v>
@@ -2491,7 +2489,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>137</v>
@@ -2499,7 +2497,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>139</v>
@@ -2507,7 +2505,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>141</v>
@@ -2515,7 +2513,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>143</v>
@@ -2523,7 +2521,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>145</v>
@@ -2531,7 +2529,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>147</v>
@@ -2539,7 +2537,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>149</v>
@@ -2547,7 +2545,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>151</v>
@@ -2555,7 +2553,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>153</v>
@@ -2563,7 +2561,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>155</v>
@@ -2571,7 +2569,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>157</v>
@@ -2579,7 +2577,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>159</v>
@@ -2587,7 +2585,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>161</v>
@@ -2595,7 +2593,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>163</v>
@@ -2603,7 +2601,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>165</v>
@@ -2611,7 +2609,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>167</v>
@@ -2619,7 +2617,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>169</v>
@@ -2627,7 +2625,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>171</v>
@@ -2635,7 +2633,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>173</v>
@@ -2643,7 +2641,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>175</v>
@@ -2651,7 +2649,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>177</v>
@@ -2659,7 +2657,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>179</v>
@@ -2667,7 +2665,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>181</v>
@@ -2675,7 +2673,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>183</v>
@@ -2683,7 +2681,7 @@
     </row>
     <row r="101" spans="1:2" ht="17.25" thickBot="1">
       <c r="A101" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>83</v>
@@ -2691,7 +2689,7 @@
     </row>
     <row r="102" spans="1:2" ht="17.25" thickBot="1">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>46</v>
@@ -2699,7 +2697,7 @@
     </row>
     <row r="103" spans="1:2" ht="17.25" thickBot="1">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>47</v>
@@ -2707,7 +2705,7 @@
     </row>
     <row r="104" spans="1:2" ht="17.25" thickBot="1">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>48</v>
@@ -2715,15 +2713,15 @@
     </row>
     <row r="105" spans="1:2" ht="17.25" thickBot="1">
       <c r="A105" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17.25" thickBot="1">
       <c r="A106" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>80</v>
@@ -2731,15 +2729,15 @@
     </row>
     <row r="107" spans="1:2" ht="17.25" thickBot="1">
       <c r="A107" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="17.25" thickBot="1">
       <c r="A108" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>49</v>
@@ -2747,31 +2745,31 @@
     </row>
     <row r="109" spans="1:2" ht="17.25" thickBot="1">
       <c r="A109" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17.25" thickBot="1">
       <c r="A110" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="17.25" thickBot="1">
       <c r="A111" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="17.25" thickBot="1">
       <c r="A112" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>50</v>
@@ -2779,23 +2777,23 @@
     </row>
     <row r="113" spans="1:2" ht="17.25" thickBot="1">
       <c r="A113" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17.25" thickBot="1">
       <c r="A114" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.25" thickBot="1">
       <c r="A115" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>51</v>
@@ -2803,39 +2801,39 @@
     </row>
     <row r="116" spans="1:2" ht="17.25" thickBot="1">
       <c r="A116" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="17.25" thickBot="1">
       <c r="A117" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="17.25" thickBot="1">
       <c r="A118" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="17.25" thickBot="1">
       <c r="A119" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17.25" thickBot="1">
       <c r="A120" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>52</v>
@@ -2843,15 +2841,15 @@
     </row>
     <row r="121" spans="1:2" ht="17.25" thickBot="1">
       <c r="A121" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="17.25" thickBot="1">
       <c r="A122" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>53</v>
@@ -2859,7 +2857,7 @@
     </row>
     <row r="123" spans="1:2" ht="17.25" thickBot="1">
       <c r="A123" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>54</v>
@@ -2867,7 +2865,7 @@
     </row>
     <row r="124" spans="1:2" ht="17.25" thickBot="1">
       <c r="A124" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>55</v>
@@ -2875,7 +2873,7 @@
     </row>
     <row r="125" spans="1:2" ht="17.25" thickBot="1">
       <c r="A125" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>56</v>
@@ -2883,15 +2881,15 @@
     </row>
     <row r="126" spans="1:2" ht="17.25" thickBot="1">
       <c r="A126" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="17.25" thickBot="1">
       <c r="A127" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B127" s="15" t="s">
         <v>57</v>
@@ -2899,7 +2897,7 @@
     </row>
     <row r="128" spans="1:2" ht="17.25" thickBot="1">
       <c r="A128" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B128" s="15" t="s">
         <v>58</v>
@@ -2907,7 +2905,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>59</v>
@@ -2915,7 +2913,7 @@
     </row>
     <row r="130" spans="1:2" ht="17.25" thickBot="1">
       <c r="A130" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>60</v>
@@ -2923,7 +2921,7 @@
     </row>
     <row r="131" spans="1:2" ht="17.25" thickBot="1">
       <c r="A131" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>61</v>
@@ -2931,7 +2929,7 @@
     </row>
     <row r="132" spans="1:2" ht="17.25" thickBot="1">
       <c r="A132" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>62</v>
@@ -2939,7 +2937,7 @@
     </row>
     <row r="133" spans="1:2" ht="17.25" thickBot="1">
       <c r="A133" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>63</v>
@@ -2947,7 +2945,7 @@
     </row>
     <row r="134" spans="1:2" ht="17.25" thickBot="1">
       <c r="A134" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>64</v>
@@ -2955,7 +2953,7 @@
     </row>
     <row r="135" spans="1:2" ht="17.25" thickBot="1">
       <c r="A135" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>65</v>
@@ -2963,7 +2961,7 @@
     </row>
     <row r="136" spans="1:2" ht="17.25" thickBot="1">
       <c r="A136" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B136" s="15" t="s">
         <v>66</v>
@@ -2971,7 +2969,7 @@
     </row>
     <row r="137" spans="1:2" ht="17.25" thickBot="1">
       <c r="A137" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B137" s="15" t="s">
         <v>67</v>
@@ -2979,7 +2977,7 @@
     </row>
     <row r="138" spans="1:2" ht="17.25" thickBot="1">
       <c r="A138" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B138" s="15" t="s">
         <v>68</v>
@@ -2987,7 +2985,7 @@
     </row>
     <row r="139" spans="1:2" ht="17.25" thickBot="1">
       <c r="A139" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B139" s="15" t="s">
         <v>70</v>
@@ -2995,7 +2993,7 @@
     </row>
     <row r="140" spans="1:2" ht="17.25" thickBot="1">
       <c r="A140" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B140" s="15" t="s">
         <v>71</v>
@@ -3003,7 +3001,7 @@
     </row>
     <row r="141" spans="1:2" ht="17.25" thickBot="1">
       <c r="A141" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B141" s="15" t="s">
         <v>72</v>
@@ -3011,7 +3009,7 @@
     </row>
     <row r="142" spans="1:2" ht="17.25" thickBot="1">
       <c r="A142" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B142" s="15" t="s">
         <v>73</v>
@@ -3019,7 +3017,7 @@
     </row>
     <row r="143" spans="1:2" ht="17.25" thickBot="1">
       <c r="A143" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B143" s="15" t="s">
         <v>74</v>
@@ -3027,7 +3025,7 @@
     </row>
     <row r="144" spans="1:2" ht="17.25" thickBot="1">
       <c r="A144" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B144" s="15" t="s">
         <v>75</v>
@@ -3035,7 +3033,7 @@
     </row>
     <row r="145" spans="1:2" ht="17.25" thickBot="1">
       <c r="A145" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B145" s="16" t="s">
         <v>76</v>
@@ -3043,7 +3041,7 @@
     </row>
     <row r="146" spans="1:2" ht="17.25" thickBot="1">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B146" s="17" t="s">
         <v>77</v>
@@ -3051,15 +3049,15 @@
     </row>
     <row r="147" spans="1:2" ht="17.25" thickBot="1">
       <c r="A147" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17.25" thickBot="1">
       <c r="A148" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B148" s="15" t="s">
         <v>78</v>
@@ -3067,7 +3065,7 @@
     </row>
     <row r="149" spans="1:2" ht="17.25" thickBot="1">
       <c r="A149" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B149" s="15" t="s">
         <v>79</v>
@@ -3075,7 +3073,7 @@
     </row>
     <row r="150" spans="1:2" ht="17.25" thickBot="1">
       <c r="A150" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B150" s="15" t="s">
         <v>84</v>
@@ -3083,7 +3081,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>86</v>
@@ -3091,7 +3089,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>88</v>
@@ -3099,7 +3097,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>90</v>
@@ -3107,7 +3105,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B154" s="20" t="s">
         <v>92</v>
@@ -3115,7 +3113,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>94</v>
@@ -3123,7 +3121,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B156" s="22" t="s">
         <v>96</v>
@@ -3131,7 +3129,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B157" s="22" t="s">
         <v>98</v>
@@ -3139,7 +3137,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B158" s="22" t="s">
         <v>100</v>
@@ -3147,7 +3145,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>102</v>
@@ -3155,7 +3153,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>104</v>
@@ -3163,7 +3161,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>106</v>
@@ -3171,7 +3169,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>108</v>
@@ -3179,7 +3177,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>110</v>
@@ -3187,7 +3185,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B164" s="19" t="s">
         <v>112</v>
@@ -3195,7 +3193,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B165" s="19" t="s">
         <v>114</v>
@@ -3203,7 +3201,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B166" s="19" t="s">
         <v>116</v>
@@ -3211,7 +3209,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B167" s="19" t="s">
         <v>118</v>
@@ -3219,7 +3217,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B168" s="19" t="s">
         <v>120</v>
@@ -3227,7 +3225,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B169" s="19" t="s">
         <v>122</v>
@@ -3235,7 +3233,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>124</v>
@@ -3243,7 +3241,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B171" s="19" t="s">
         <v>126</v>
@@ -3251,7 +3249,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B172" s="19" t="s">
         <v>128</v>
@@ -3259,7 +3257,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B173" s="19" t="s">
         <v>130</v>
@@ -3267,7 +3265,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B174" s="19" t="s">
         <v>132</v>
@@ -3275,7 +3273,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B175" s="19" t="s">
         <v>134</v>
@@ -3283,7 +3281,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B176" s="19" t="s">
         <v>136</v>
@@ -3291,7 +3289,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B177" s="19" t="s">
         <v>138</v>
@@ -3299,7 +3297,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B178" s="19" t="s">
         <v>140</v>
@@ -3307,7 +3305,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B179" s="19" t="s">
         <v>142</v>
@@ -3315,7 +3313,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B180" s="19" t="s">
         <v>144</v>
@@ -3323,7 +3321,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>146</v>
@@ -3331,7 +3329,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B182" s="19" t="s">
         <v>148</v>
@@ -3339,7 +3337,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B183" s="19" t="s">
         <v>150</v>
@@ -3347,7 +3345,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B184" s="19" t="s">
         <v>152</v>
@@ -3355,7 +3353,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B185" s="19" t="s">
         <v>154</v>
@@ -3363,7 +3361,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B186" s="19" t="s">
         <v>156</v>
@@ -3371,7 +3369,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B187" s="19" t="s">
         <v>158</v>
@@ -3379,7 +3377,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B188" s="19" t="s">
         <v>160</v>
@@ -3387,7 +3385,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B189" s="19" t="s">
         <v>162</v>
@@ -3395,7 +3393,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B190" s="19" t="s">
         <v>164</v>
@@ -3403,7 +3401,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B191" s="19" t="s">
         <v>166</v>
@@ -3411,7 +3409,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>168</v>
@@ -3419,7 +3417,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B193" s="19" t="s">
         <v>170</v>
@@ -3427,7 +3425,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B194" s="19" t="s">
         <v>172</v>
@@ -3435,7 +3433,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>174</v>
@@ -3443,7 +3441,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>176</v>
@@ -3451,7 +3449,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>178</v>
@@ -3459,7 +3457,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>180</v>
@@ -3467,7 +3465,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>182</v>
@@ -3475,7 +3473,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>184</v>

--- a/인공지능 데이터수집 통합본(3).xlsx
+++ b/인공지능 데이터수집 통합본(3).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrandonJ\Desktop\filtertext\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhe\Desktop\textmask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948942CB-90E5-4D7F-9F58-36E488B5C03A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87076EF-F842-43D9-B774-C1CBFB1B6071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjM7Nf8LKv+pMOJ3S+csL2cE8Iqkw=="/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="203">
   <si>
     <t>Clean</t>
   </si>
@@ -177,10 +177,6 @@
   </si>
   <si>
     <t>누구든 공개해서 국민들 안전 책임지는 사람이 없구먼 다 소용없네ㅎㅎㅁㅊ</t>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -18379,10 +18375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E200" sqref="E200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -18393,1631 +18389,2424 @@
     <col min="27" max="16384" width="12.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="2">
+        <f ca="1">RAND()</f>
+        <v>4.5844410228899402E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.38201262413257242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.68976039262228861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.62134392490300761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.23566195303089665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.57617628095083051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.77689823301033878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="2">
+        <f ca="1">RAND()</f>
+        <v>2.9356814193349123E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.3358563594111198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.97272081968027124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.68943525082660639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.75603879101619187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.73571070390502502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="2">
+        <f ca="1">RAND()</f>
+        <v>2.7089830497273648E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" customHeight="1">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.75601613817274871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.19913838537031114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.8559683589874173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.13668133534798932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.99949192024285849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="2">
+        <f ca="1">RAND()</f>
+        <v>2.0152664417386279E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.62964413832235122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="2">
+        <f ca="1">RAND()</f>
+        <v>9.1547915813377179E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.26701808633185575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.50459516964481166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="2">
+        <f ca="1">RAND()</f>
+        <v>1.138075767178226E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.71188101756550337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.33133801423234277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.66822196863092753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16.5" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.11482612896464295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.72333163700875724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16.5" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.63676332096979449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="2">
+        <f ca="1">RAND()</f>
+        <v>2.4572894654833699E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16.5" customHeight="1">
+        <v>53</v>
+      </c>
+      <c r="E34" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.50950519396947447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B35" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.94962548164126237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16.5" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.14458150697983674</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.45540937755627831</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.52062665687133047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.5" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="E39" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.75948550615938715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="E40" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.18111170815191902</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.87871040011266444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B42" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.11159307506985505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16.5" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.11678338988401904</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B44" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.9527423357232665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.48636571375638171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.62341670550246442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B47" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="2">
+        <f ca="1">RAND()</f>
+        <v>1.9930255910332928E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16.5" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.23045824051995534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.2048201590260067</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="16.5" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="E50" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.59581506962390263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.71786641698890208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B52" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.37264175141300993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B53" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.16865644686313908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.71590104062165238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.87384740690229346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B56" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.60943761025933396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.68976344260975075</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.63223698195678191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16.5" customHeight="1">
+        <v>181</v>
+      </c>
+      <c r="E59" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.33585963710424294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B60" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.54282826190291389</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.35397141095034113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.40978835470411257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16.5" customHeight="1">
+        <v>192</v>
+      </c>
+      <c r="E63" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.19133785729024322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B64" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.76833192879354772</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B65" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.81439510970795659</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16.5" customHeight="1">
+        <v>186</v>
+      </c>
+      <c r="E66" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.63518622822724746</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.4918351631420359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.5" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.32338178958720654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.48503262584568274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B70" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.6499169966805578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B71" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.73682661526161553</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="16.5" customHeight="1">
+        <v>200</v>
+      </c>
+      <c r="E72" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.70783762482492241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.39924488718921658</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="16.5" customHeight="1">
+        <v>201</v>
+      </c>
+      <c r="E74" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.67137874950532761</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16.5" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.19028413240004749</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.5" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B76" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="2">
+        <f ca="1">RAND()</f>
+        <v>8.5541213283967577E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16.5" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="16.5" customHeight="1">
+        <v>191</v>
+      </c>
+      <c r="E77" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.40648950512904725</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.5" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="16.5" customHeight="1">
+        <v>95</v>
+      </c>
+      <c r="E78" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.8859762410188271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16.5" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B79" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.23184282333632655</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B80" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.92042999884381127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16.5" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.99035059546739379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="2">
+        <f ca="1">RAND()</f>
+        <v>7.3332925519712044E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16.5" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B83" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="2">
+        <f ca="1">RAND()</f>
+        <v>3.3750250585045327E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16.5" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="16.5" customHeight="1">
+        <v>184</v>
+      </c>
+      <c r="E84" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.34966889850185023</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16.5" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E85" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.19468530048747368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16.5" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="16.5" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="E86" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.65821205042135111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.37171068927986439</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16.5" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.50747100270623258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="16.5" customHeight="1">
+        <v>202</v>
+      </c>
+      <c r="E89" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.50003224994875139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="16.5" customHeight="1">
+        <v>73</v>
+      </c>
+      <c r="E90" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.54882048748831291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E91" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.78560441824865834</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B92" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.53997131169148582</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B93" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.90218104112471209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="16.5" customHeight="1">
+        <v>82</v>
+      </c>
+      <c r="E94" s="2">
+        <f ca="1">RAND()</f>
+        <v>9.2973477218173728E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16.5" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="2">
+        <f ca="1">RAND()</f>
+        <v>8.7524500894232471E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16.5" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B96" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.80292418971238466</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16.5" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B97" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.85078931432060556</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16.5" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.88706763980053605</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16.5" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="16.5" customHeight="1">
+        <v>156</v>
+      </c>
+      <c r="E99" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.41436021059585104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16.5" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B100" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.14410651389703766</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B101" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E101" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.10067413864365204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16.5" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B102" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E102" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.72424096453778419</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B103" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E103" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.97758673962366061</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.64379254484199777</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="16.5" customHeight="1">
+        <v>148</v>
+      </c>
+      <c r="E105" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.35064673147195125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B106" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E106" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.28798794793570304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E107" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.84587904954844062</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E108" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.89759686527325744</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E109" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.92860109645791911</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="16.5" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="16.5" customHeight="1">
+        <v>109</v>
+      </c>
+      <c r="E110" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.77625988199818119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16.5" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="16.5" customHeight="1">
+        <v>146</v>
+      </c>
+      <c r="E111" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.80444913303354471</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="16.5" customHeight="1">
+        <v>141</v>
+      </c>
+      <c r="E112" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.56502046415235441</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16.5" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E113" s="2">
+        <f ca="1">RAND()</f>
+        <v>4.1902017456570961E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16.5" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="16.5" customHeight="1">
+        <v>136</v>
+      </c>
+      <c r="E114" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.5649981984149165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E115" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.17361547826063684</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="16.5" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="16.5" customHeight="1">
+        <v>149</v>
+      </c>
+      <c r="E116" s="2">
+        <f ca="1">RAND()</f>
+        <v>2.3162308841612411E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="16.5" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="16.5" customHeight="1">
+        <v>112</v>
+      </c>
+      <c r="E117" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.66540881999844548</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16.5" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.54390188649443461</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16.5" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E119" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.97177155831413409</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16.5" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.15376968921122691</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="16.5" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E121" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.36369504239805173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B122" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B122" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E122" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.14071271089871906</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="16.5" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B123" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E123" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.5192600732028686</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="16.5" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B124" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E124" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.63815007294790704</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="16.5" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E125" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.29713530161559287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="16.5" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B126" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.29494592300210332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="16.5" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B127" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E127" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.97103493519251483</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="16.5" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E128" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.42256685554563223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="16.5" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E129" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.18103736366201884</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="16.5" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E130" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.73365326340818682</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="16.5" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="16.5" customHeight="1">
+      <c r="E131" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.46060426919218755</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="16.5" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E132" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.91584510910430694</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="16.5" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="2">
+        <f ca="1">RAND()</f>
+        <v>7.9939257550460274E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="16.5" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.83621710499806756</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="16.5" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E135" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.12795059043124191</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="16.5" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E136" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.58907755409518048</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="16.5" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E137" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.6820470779591542</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="16.5" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E138" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.67722986480552982</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16.5" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="16.5" customHeight="1">
+        <v>151</v>
+      </c>
+      <c r="E139" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.25770356486031731</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="16.5" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="16.5" customHeight="1">
+        <v>105</v>
+      </c>
+      <c r="E140" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.97728984029945187</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="16.5" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B141" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E141" s="2">
+        <f ca="1">RAND()</f>
+        <v>8.1839291864243768E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="16.5" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.77343824216192381</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="16.5" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="16.5" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="E143" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.64313901014819352</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="16.5" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="16.5" customHeight="1">
+        <v>118</v>
+      </c>
+      <c r="E144" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.20994942144797102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="16.5" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B145" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B145" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E145" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.84836845185785414</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="16.5" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E146" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.38401283634018879</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="16.5" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B147" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E147" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.16163858155696209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="16.5" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.20260481488670179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="16.5" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E149" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.28793414050971589</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="16.5" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.24832141703155342</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="16.5" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B151" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B151" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E151" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.28954886613345054</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="16.5" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.28695956344317297</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="16.5" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="16.5" customHeight="1">
+        <v>178</v>
+      </c>
+      <c r="E153" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.1404597980204334</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="16.5" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="16.5" customHeight="1">
+        <v>198</v>
+      </c>
+      <c r="E154" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.47617540786500701</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="16.5" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B155" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E155" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.25343736036635012</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="16.5" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="16.5" customHeight="1">
+        <v>171</v>
+      </c>
+      <c r="E156" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.7875473800312901</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="16.5" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B157" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B157" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E157" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.32216018830765447</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="16.5" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B158" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E158" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.85146005380246326</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="16.5" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="16.5" customHeight="1">
+        <v>166</v>
+      </c>
+      <c r="E159" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.40880516112855447</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="16.5" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B160" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E160" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.95052741811039076</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="16.5" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="16.5" customHeight="1">
+        <v>153</v>
+      </c>
+      <c r="E161" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.51551267609961948</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="16.5" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E162" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.3490723623933929</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="16.5" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="16.5" customHeight="1">
+        <v>155</v>
+      </c>
+      <c r="E163" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.25967265906592241</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="16.5" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="16.5" customHeight="1">
+        <v>157</v>
+      </c>
+      <c r="E164" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.30734469602436176</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="16.5" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E165" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.70224711298680387</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="16.5" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B166" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B166" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E166" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.22207942874260922</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="16.5" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="16.5" customHeight="1">
+        <v>179</v>
+      </c>
+      <c r="E167" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.11727866300678158</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="16.5" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="16.5" customHeight="1">
+        <v>195</v>
+      </c>
+      <c r="E168" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.25798759513398228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="16.5" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="16.5" customHeight="1">
+        <v>87</v>
+      </c>
+      <c r="E169" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.98960806160213599</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="16.5" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E170" s="2">
+        <f ca="1">RAND()</f>
+        <v>6.8915335151148782E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="16.5" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="16.5" customHeight="1">
+        <v>194</v>
+      </c>
+      <c r="E171" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.5534921209716388</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="16.5" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="16.5" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E172" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.4375601367343297</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="16.5" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E173" s="2">
+        <f ca="1">RAND()</f>
+        <v>2.8627406645276743E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="16.5" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E174" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.90121465760662089</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="16.5" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="16.5" customHeight="1">
+        <v>161</v>
+      </c>
+      <c r="E175" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.48744415450221779</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="16.5" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="16.5" customHeight="1">
+        <v>199</v>
+      </c>
+      <c r="E176" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.7503227250955794</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="16.5" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B177" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B177" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E177" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.44968315804377723</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="16.5" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="16.5" customHeight="1">
+        <v>92</v>
+      </c>
+      <c r="E178" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.32012274131615104</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="16.5" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B179" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B179" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E179" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.47649697488930831</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="16.5" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E180" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.84886891705530121</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="16.5" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="16.5" customHeight="1">
+        <v>71</v>
+      </c>
+      <c r="E181" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.17094468377010397</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="16.5" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="16.5" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="E182" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.12768897949357971</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="16.5" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.65754367576310258</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="16.5" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="16.5" customHeight="1">
+        <v>76</v>
+      </c>
+      <c r="E184" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.4909682568853645</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="16.5" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="16.5" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="E185" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.85623852836997527</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="16.5" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="16.5" customHeight="1">
+        <v>176</v>
+      </c>
+      <c r="E186" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.29993261818275108</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="16.5" customHeight="1">
       <c r="A187" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="16.5" customHeight="1">
+        <v>170</v>
+      </c>
+      <c r="E187" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.54723826702779998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="16.5" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E188" s="2">
+        <f ca="1">RAND()</f>
+        <v>6.9757654117962198E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="16.5" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="16.5" customHeight="1">
+        <v>173</v>
+      </c>
+      <c r="E189" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.44070385364274367</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="16.5" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E190" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.54067414453593665</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="16.5" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.20816202545422036</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="16.5" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="16.5" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="E192" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.88336186539967454</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="16.5" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="16.5" customHeight="1">
+        <v>160</v>
+      </c>
+      <c r="E193" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.438106884497521</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="16.5" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B194" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B194" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E194" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.27991838697672178</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="16.5" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B195" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B195" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E195" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.14222568556608273</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="16.5" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="16.5" customHeight="1">
+        <v>189</v>
+      </c>
+      <c r="E196" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.8168078904247158</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="16.5" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="16.5" customHeight="1">
+        <v>78</v>
+      </c>
+      <c r="E197" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.26437715595640332</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="16.5" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="16.5" customHeight="1">
+        <v>187</v>
+      </c>
+      <c r="E198" s="2">
+        <f ca="1">RAND()</f>
+        <v>1.4098265737547577E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="16.5" customHeight="1">
       <c r="A199" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B199" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B199" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E199" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.72561676822800114</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="16.5" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E200" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.70239824871962142</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="16.5" customHeight="1">
       <c r="B201" s="3"/>
     </row>
-    <row r="202" spans="1:2" ht="16.5" customHeight="1">
+    <row r="202" spans="1:5" ht="16.5" customHeight="1">
       <c r="B202" s="3"/>
     </row>
-    <row r="203" spans="1:2" ht="16.5" customHeight="1">
+    <row r="203" spans="1:5" ht="16.5" customHeight="1">
       <c r="B203" s="3"/>
     </row>
-    <row r="204" spans="1:2" ht="16.5" customHeight="1">
+    <row r="204" spans="1:5" ht="16.5" customHeight="1">
       <c r="B204" s="3"/>
     </row>
-    <row r="205" spans="1:2" ht="16.5" customHeight="1">
+    <row r="205" spans="1:5" ht="16.5" customHeight="1">
       <c r="B205" s="3"/>
     </row>
-    <row r="206" spans="1:2" ht="16.5" customHeight="1">
+    <row r="206" spans="1:5" ht="16.5" customHeight="1">
       <c r="B206" s="3"/>
     </row>
-    <row r="207" spans="1:2" ht="16.5" customHeight="1">
+    <row r="207" spans="1:5" ht="16.5" customHeight="1">
       <c r="B207" s="3"/>
     </row>
-    <row r="208" spans="1:2" ht="16.5" customHeight="1">
+    <row r="208" spans="1:5" ht="16.5" customHeight="1">
       <c r="B208" s="3"/>
     </row>
     <row r="209" spans="2:2" ht="16.5" customHeight="1">
@@ -21397,6 +22186,9 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E200">
+    <sortCondition ref="E2:E200"/>
+  </sortState>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
